--- a/CSVParser/Assets/ExceltoSO/TestExcel.xlsx
+++ b/CSVParser/Assets/ExceltoSO/TestExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyb1\Documents\GitHub\CSVtoSO\CSVParser\Assets\ExceltoSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC28861-55EA-4D55-A9A6-94406F9529E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4FDB3F-B0AF-480D-BC11-58695CCCE63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="945" windowWidth="18495" windowHeight="11160" xr2:uid="{8C6C3F71-EBFB-465B-9E68-BD506C7BE920}"/>
+    <workbookView xWindow="14640" yWindow="945" windowWidth="18495" windowHeight="11160" activeTab="1" xr2:uid="{8C6C3F71-EBFB-465B-9E68-BD506C7BE920}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
   </si>
   <si>
     <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07A8A68-04BF-415F-9838-80EEE9C59FD6}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -540,33 +536,33 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -574,10 +570,10 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -592,7 +588,7 @@
         <v>0.3</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -605,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024AC600-50A3-46B8-9FB7-1EB22DAAA6BB}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -636,25 +632,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -662,10 +658,10 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -698,30 +694,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
